--- a/Assets/Resources/Data/Enemy/SkyDragon.xlsx
+++ b/Assets/Resources/Data/Enemy/SkyDragon.xlsx
@@ -400,7 +400,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -421,7 +421,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="C2">
         <v>0</v>
